--- a/USoc_vaccine/FigORsCIs.xlsx
+++ b/USoc_vaccine/FigORsCIs.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cmvm.datastore.ed.ac.uk\cmvm\mvmsan\smcmshared\21CGH\Workspace\Drew\R\CL-masks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daltschu\Documents\GitHub\R\USoc_vaccine\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="384">
   <si>
     <t>Adjusted for all covariates</t>
   </si>
@@ -1055,12 +1058,183 @@
   <si>
     <t>0.40 (0.26, 0.62)</t>
   </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>All covariates</t>
+  </si>
+  <si>
+    <t>1.28 (1.07, 1.54)</t>
+  </si>
+  <si>
+    <t>1.99 (1.66, 2.40)</t>
+  </si>
+  <si>
+    <t>1.18 (0.99, 1.42)</t>
+  </si>
+  <si>
+    <t>1.67 (1.37, 2.03)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1.31 (0.92, 1.86)</t>
+  </si>
+  <si>
+    <t>1.27 (0.90, 1.81)</t>
+  </si>
+  <si>
+    <t>1.58 (1.12, 2.24)</t>
+  </si>
+  <si>
+    <t>1.50 (1.06, 2.12)</t>
+  </si>
+  <si>
+    <t>1.56 (1.11, 2.22)</t>
+  </si>
+  <si>
+    <t>1.47 (1.04, 2.09)</t>
+  </si>
+  <si>
+    <t>1.51 (1.07, 2.14)</t>
+  </si>
+  <si>
+    <t>1.35 (0.95, 1.92)</t>
+  </si>
+  <si>
+    <t>1.72 (1.23, 2.42)</t>
+  </si>
+  <si>
+    <t>1.55 (1.10, 2.19)</t>
+  </si>
+  <si>
+    <t>1.87 (1.33, 2.64)</t>
+  </si>
+  <si>
+    <t>1.61 (1.14, 2.29)</t>
+  </si>
+  <si>
+    <t>2.34 (1.68, 3.27)</t>
+  </si>
+  <si>
+    <t>1.96 (1.40, 2.76)</t>
+  </si>
+  <si>
+    <t>2.61 (1.88, 3.65)</t>
+  </si>
+  <si>
+    <t>2.17 (1.55, 3.06)</t>
+  </si>
+  <si>
+    <t>2.75 (1.98, 3.85)</t>
+  </si>
+  <si>
+    <t>2.19 (1.56, 3.09)</t>
+  </si>
+  <si>
+    <t>Highest (10)</t>
+  </si>
+  <si>
+    <t>Age, sex, &amp; ethnicity</t>
+  </si>
+  <si>
+    <t>1.00 (0.72, 1.36)</t>
+  </si>
+  <si>
+    <t>1.11 (0.79, 1.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depression </t>
+  </si>
+  <si>
+    <t>0.99 (0.72, 1.33)</t>
+  </si>
+  <si>
+    <t>1.12 (0.81, 1.53)</t>
+  </si>
+  <si>
+    <t>0.99 (0.75, 1.29)</t>
+  </si>
+  <si>
+    <t>1.14 (0.86, 1.49)</t>
+  </si>
+  <si>
+    <t>0.84 (0.73, 0.97)</t>
+  </si>
+  <si>
+    <t>0.89 (0.77, 1.03)</t>
+  </si>
+  <si>
+    <t>Cardiometabolic disease</t>
+  </si>
+  <si>
+    <t>0.82 (0.67, 0.99)</t>
+  </si>
+  <si>
+    <t>0.78 (0.64, 0.95)</t>
+  </si>
+  <si>
+    <t>Respiratory disease</t>
+  </si>
+  <si>
+    <t>0.71 (0.57, 0.88)</t>
+  </si>
+  <si>
+    <t>0.74 (0.59, 0.93)</t>
+  </si>
+  <si>
+    <t>Any cancer</t>
+  </si>
+  <si>
+    <t>0.87 (0.58, 1.28)</t>
+  </si>
+  <si>
+    <t>0.95 (0.62, 1.39)</t>
+  </si>
+  <si>
+    <t>0.72 (0.61, 0.85)</t>
+  </si>
+  <si>
+    <t>0.72 (0.60, 0.85)</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Psychological distress</t>
+  </si>
+  <si>
+    <t>Other mental health condition(s)</t>
+  </si>
+  <si>
+    <t>Any mental health condition</t>
+  </si>
+  <si>
+    <t>Any physical health condition</t>
+  </si>
+  <si>
+    <t>1.08 (0.64, 1.75)</t>
+  </si>
+  <si>
+    <t>1.21 (0.71, 1.97)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,6 +1281,40 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1247,7 +1455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1315,13 +1523,55 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2318,7 +2568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -2331,30 +2581,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
@@ -2425,18 +2675,18 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -2697,12 +2947,12 @@
       <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
@@ -3164,12 +3414,12 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
@@ -3250,8 +3500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,7 +3553,7 @@
       <c r="B3" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>324</v>
       </c>
       <c r="D3" t="s">
@@ -3317,7 +3567,7 @@
       <c r="B4" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>325</v>
       </c>
       <c r="D4" t="s">
@@ -3331,7 +3581,7 @@
       <c r="B5" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>326</v>
       </c>
       <c r="D5" t="s">
@@ -3365,7 +3615,7 @@
       <c r="D7" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -3380,7 +3630,7 @@
       <c r="D8" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
@@ -3395,7 +3645,7 @@
       <c r="D9" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
@@ -3616,7 +3866,7 @@
       <c r="B23" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="25" t="s">
         <v>318</v>
       </c>
       <c r="D23" t="s">
@@ -3635,7 +3885,7 @@
       <c r="B24" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="25" t="s">
         <v>319</v>
       </c>
       <c r="D24" t="s">
@@ -3649,7 +3899,7 @@
       <c r="B25" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="25" t="s">
         <v>320</v>
       </c>
       <c r="D25" t="s">
@@ -3851,7 +4101,7 @@
       <c r="B39" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="25" t="s">
         <v>321</v>
       </c>
       <c r="D39" t="s">
@@ -3865,7 +4115,7 @@
       <c r="B40" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>322</v>
       </c>
       <c r="D40" t="s">
@@ -3879,7 +4129,7 @@
       <c r="B41" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="25" t="s">
         <v>323</v>
       </c>
       <c r="D41" t="s">
@@ -3890,4 +4140,711 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="28"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="C13" t="s">
+        <v>330</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" t="s">
+        <v>330</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C18" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="28"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" t="s">
+        <v>330</v>
+      </c>
+      <c r="K19" s="28"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="K20" s="28"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="28"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="28"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="28"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="28"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="28"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="28"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="28"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="28"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K32" s="28"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+    </row>
+    <row r="33" spans="11:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K33" s="28"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K30:M30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>